--- a/TestDir/testinterface.xlsx
+++ b/TestDir/testinterface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7650" tabRatio="930"/>
+    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="add" sheetId="1" r:id="rId1"/>
@@ -966,12 +966,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1013,29 +1013,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,6 +1050,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1072,15 +1079,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1094,8 +1093,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,9 +1125,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1122,29 +1138,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1187,19 +1180,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1217,49 +1222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1283,6 +1252,84 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1295,31 +1342,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,43 +1360,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,17 +1374,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,10 +1430,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1454,8 +1439,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1470,160 +1457,166 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2115,8 +2108,8 @@
   </sheetPr>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2170,7 +2163,7 @@
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" ht="23" customHeight="1" spans="1:18">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
